--- a/ESP_Output.xlsx
+++ b/ESP_Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,371 +443,336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>284</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>295</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>322</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>371</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>393</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>416</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>659</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1804</t>
+          <t>687</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>713</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>737</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>760</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>9754</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>9781</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>9806</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>9823</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>9831</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>9856</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9765</t>
+          <t>9881</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9792</t>
+          <t>9905</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9818</t>
+          <t>9930</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9844</t>
+          <t>9955</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9869</t>
+          <t>9980</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9894</t>
+          <t>10004</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9919</t>
+          <t>10029</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9944</t>
+          <t>10054</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>10078</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9994</t>
+          <t>10102</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10019</t>
+          <t>10127</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10043</t>
+          <t>10151</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10068</t>
+          <t>10176</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10093</t>
+          <t>10201</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10118</t>
+          <t>10226</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10142</t>
+          <t>10251</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10167</t>
+          <t>10277</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10192</t>
+          <t>10302</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10216</t>
+          <t>10327</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10241</t>
+          <t>10352</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10265</t>
+          <t>10377</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10290</t>
+          <t>10402</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10315</t>
+          <t>10426</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10339</t>
+          <t>10451</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>10475</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10612</t>
+          <t>10499</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10637</t>
+          <t>10523</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10662</t>
+          <t>10547</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10686</t>
+          <t>10571</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10711</t>
+          <t>13038</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10736</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>10761</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>10786</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>10810</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>10835</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>-87515</t>
+          <t>-87497</t>
         </is>
       </c>
     </row>

--- a/ESP_Output.xlsx
+++ b/ESP_Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,336 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>295</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>687</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>713</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>737</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>9754</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>9781</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>9806</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>9823</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>9831</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>9856</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>9881</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>9905</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>9930</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>9955</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>9980</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>10004</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>10029</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>10054</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>10078</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>10102</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>10127</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>10151</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>10176</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>10201</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>10226</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>10251</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>10277</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>10302</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>10327</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>10352</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>10377</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10402</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>10426</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>10451</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>10475</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>10499</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>10523</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>10547</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>10571</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>13038</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-87497</t>
+          <t>-87519</t>
         </is>
       </c>
     </row>

--- a/ESP_Output.xlsx
+++ b/ESP_Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,861 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-87519</t>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>9754</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>9759</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>9786</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>9812</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>9828</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>9837</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>9863</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>9888</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>9913</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>9938</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>9963</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>9989</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10014</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10039</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10113</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10138</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10187</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10212</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10237</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10261</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10286</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10311</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10336</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10360</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10385</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10401</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10435</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10460</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10510</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10534</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10559</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10584</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10600</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10609</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10633</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10658</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10708</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10733</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10751</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>10776</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10782</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10807</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10831</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10852</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10856</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>19763</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>19791</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>19810</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19817</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>19842</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>19868</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>19893</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>19918</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>19943</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19968</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19993</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20018</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20043</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20068</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20092</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20117</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20146</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20166</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20191</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20213</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20215</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>-87494</t>
         </is>
       </c>
     </row>
